--- a/debug question answering/list jawaban.xlsx
+++ b/debug question answering/list jawaban.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="110">
   <si>
     <t>pertanyaan</t>
   </si>
@@ -247,9 +247,6 @@
     <t>sunan kalijaga</t>
   </si>
   <si>
-    <t>abad ke-17</t>
-  </si>
-  <si>
     <t>sultan hasanudin</t>
   </si>
   <si>
@@ -338,6 +335,15 @@
   </si>
   <si>
     <t>13 - 21 mei 1998</t>
+  </si>
+  <si>
+    <t>abad ke-17/1605</t>
+  </si>
+  <si>
+    <t>9 mei 1914</t>
+  </si>
+  <si>
+    <t>1512 / 1511</t>
   </si>
 </sst>
 </file>
@@ -1179,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,7 +1265,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1315,7 +1321,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1323,15 +1329,15 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="1">
-        <v>1512</v>
+      <c r="B18" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1339,7 +1345,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1347,7 +1353,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1355,7 +1361,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1371,7 +1377,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1379,7 +1385,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1387,7 +1393,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1403,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1419,7 +1425,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1427,7 +1433,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1435,7 +1441,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1443,7 +1449,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1451,7 +1457,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1474,8 +1480,8 @@
       <c r="A36" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="3">
-        <v>5235</v>
+      <c r="B36" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1483,7 +1489,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1499,7 +1505,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1507,7 +1513,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1539,7 +1545,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1547,7 +1553,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1555,7 +1561,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1563,7 +1569,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1579,7 +1585,7 @@
         <v>53</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1595,7 +1601,7 @@
         <v>55</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1603,7 +1609,7 @@
         <v>56</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1611,7 +1617,7 @@
         <v>57</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1619,7 +1625,7 @@
         <v>58</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1627,7 +1633,7 @@
         <v>59</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1643,7 +1649,7 @@
         <v>61</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1659,7 +1665,7 @@
         <v>64</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1667,7 +1673,7 @@
         <v>65</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1675,7 +1681,7 @@
         <v>66</v>
       </c>
       <c r="B61" s="4">
-        <v>18534</v>
+        <v>24378</v>
       </c>
     </row>
   </sheetData>

--- a/debug question answering/list jawaban.xlsx
+++ b/debug question answering/list jawaban.xlsx
@@ -301,9 +301,6 @@
     <t>geladak kapal amerika renville</t>
   </si>
   <si>
-    <t>juni 1948</t>
-  </si>
-  <si>
     <t>sayuti malik</t>
   </si>
   <si>
@@ -344,6 +341,9 @@
   </si>
   <si>
     <t>1512 / 1511</t>
+  </si>
+  <si>
+    <t>17 januari 1948</t>
   </si>
 </sst>
 </file>
@@ -1185,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,7 +1265,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1321,7 +1321,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1329,7 +1329,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1337,7 +1337,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1433,7 +1433,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1449,7 +1449,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1481,7 +1481,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1561,7 +1561,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1617,7 +1617,7 @@
         <v>57</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1625,7 +1625,7 @@
         <v>58</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1633,7 +1633,7 @@
         <v>59</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1649,7 +1649,7 @@
         <v>61</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1665,7 +1665,7 @@
         <v>64</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1673,7 +1673,7 @@
         <v>65</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
